--- a/ocms/src/test/resources/DownloadedFiles/Wait Time Color Config (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Wait Time Color Config (1).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t xml:space="preserve">Start Duration</t>
   </si>
@@ -37,16 +37,142 @@
     <t xml:space="preserve">Last Changed On</t>
   </si>
   <si>
-    <t xml:space="preserve">10:10:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:19:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#de2a2a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INDIATETHERFI\Siraj</t>
+    <t xml:space="preserve">00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#e69595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENGTETH\Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/01/2019 10:29:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#e5da11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/04/2019 17:21:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#9c933b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/03/2019 10:16:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#915353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/01/2019 10:30:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#421956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/01/2019 17:56:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:01:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#e61cd5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/03/2019 15:06:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:50:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ffffff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/01/2019 10:25:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:00:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:50:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ba4848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/05/2019 17:15:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:33:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:44:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#9c5454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENGTETH\Palak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/01/2019 11:22:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#46eb37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/01/2019 14:17:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:59:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#d515d8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/02/2019 22:05:03</t>
   </si>
 </sst>
 </file>
@@ -126,8 +252,8 @@
     <col min="2" max="2" customWidth="1" width="12.714285714285714" bestFit="1"/>
     <col min="3" max="3" customWidth="1" width="7.714285714285714" bestFit="1"/>
     <col min="4" max="4" customWidth="1" width="10.714285714285714" bestFit="1"/>
-    <col min="5" max="5" customWidth="1" width="19.714285714285715" bestFit="1"/>
-    <col min="6" max="6" customWidth="1" width="55.714285714285715" bestFit="1"/>
+    <col min="5" max="5" customWidth="1" width="22.714285714285715" bestFit="1"/>
+    <col min="6" max="6" customWidth="1" width="19.714285714285715" bestFit="1"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
@@ -166,8 +292,208 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2">
-        <v>43636.76761574074</v>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/DownloadedFiles/Wait Time Color Config (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Wait Time Color Config (1).xlsx
@@ -109,7 +109,7 @@
     <t xml:space="preserve">#783838</t>
   </si>
   <si>
-    <t xml:space="preserve">05/11/2019 17:27:31</t>
+    <t xml:space="preserve">11/11/2019 12:12:14</t>
   </si>
   <si>
     <t xml:space="preserve">10:00:00</t>

--- a/ocms/src/test/resources/DownloadedFiles/Wait Time Color Config (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Wait Time Color Config (1).xlsx
@@ -109,7 +109,7 @@
     <t xml:space="preserve">#783838</t>
   </si>
   <si>
-    <t xml:space="preserve">11/11/2019 12:12:14</t>
+    <t xml:space="preserve">20/11/2019 11:10:33</t>
   </si>
   <si>
     <t xml:space="preserve">10:00:00</t>
